--- a/medicine/Pharmacie/Gélule_gastro-résistante/Gélule_gastro-résistante.xlsx
+++ b/medicine/Pharmacie/Gélule_gastro-résistante/Gélule_gastro-résistante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lule_gastro-r%C3%A9sistante</t>
+          <t>Gélule_gastro-résistante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En galénique, une gélule gastro-résistante, également appelée gélule à enrobage gastro-résistant est un type de gélule qui ne se délite pas au passage de l'estomac où le milieu possède un pH acide, ou bien qui contient des granules dispersibles en milieu post-gastrique.
